--- a/biology/Botanique/Melampodium_leucanthum/Melampodium_leucanthum.xlsx
+++ b/biology/Botanique/Melampodium_leucanthum/Melampodium_leucanthum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melampodium leucanthum est une espèce de plantes à fleurs de la famille des Asteraceae, originaire du continent nord-américain.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante herbacée, de 15 à 50 cm de hauteur, qui se présente sous forme de touffes un peu buissonnantes. Les feuilles sont opposées, étroites et mesurent de 2 à 5 cm de long[1].
-Appareil reproducteur
-La floraison a lieu entre mars et novembre. Les inflorescences sont des capitules blancs à cœur jaune-verdâtre, isolés au sommet de chaque tige florale. Chaque capitule mesure environ 2,5 cm de diamètre. L'involucre est constitué de 5 bractées larges, fusionnées sur la moitié ou les 2/3 de leur longueur[1].
-Les fruits sont des akènes possédants plusieurs écailles étroites à leur extrémité.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée, de 15 à 50 cm de hauteur, qui se présente sous forme de touffes un peu buissonnantes. Les feuilles sont opposées, étroites et mesurent de 2 à 5 cm de long.
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et novembre. Les inflorescences sont des capitules blancs à cœur jaune-verdâtre, isolés au sommet de chaque tige florale. Chaque capitule mesure environ 2,5 cm de diamètre. L'involucre est constitué de 5 bractées larges, fusionnées sur la moitié ou les 2/3 de leur longueur.
+Les fruits sont des akènes possédants plusieurs écailles étroites à leur extrémité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Melampodium_leucanthum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Melampodium_leucanthum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse sur sol rocailleux dans les plaines arides et les déserts. Son aire de répartition s'étend, au nord, de l'Arizona jusqu'au Kansas (États-Unis), et au sud jusqu'au Mexique.
 </t>
